--- a/dnd-3e/checklist.xlsx
+++ b/dnd-3e/checklist.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dnd-3e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1DFB3B96-0DD3-EB43-9F61-A1837552B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC5F96-BDBE-BA49-B58F-B22AC1B9955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="data" localSheetId="0">checklist!$B$49:$C$64</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{D7AA614C-16F5-4043-B82B-4A78C586128E}" name="data" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/clark/data.txt">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>ベーシック・セット</t>
   </si>
@@ -353,12 +369,108 @@
   </si>
   <si>
     <t>mm_35.jpg</t>
+  </si>
+  <si>
+    <t>グレイホーク・ワールドガイド</t>
+  </si>
+  <si>
+    <t>Living Greyhawk Gazetteer</t>
+  </si>
+  <si>
+    <t>フォーゴトン・レルム・ワールドガイド</t>
+  </si>
+  <si>
+    <t>Forgotten Realms Campaign Setting</t>
+  </si>
+  <si>
+    <t>ウォーターディープ： 壮麗な都</t>
+  </si>
+  <si>
+    <t>City of Splendors: Waterdeep</t>
+  </si>
+  <si>
+    <t>アンダーダーク</t>
+  </si>
+  <si>
+    <t>Underdark</t>
+  </si>
+  <si>
+    <t>フェイルーン・プレイヤーズ・ガイド</t>
+  </si>
+  <si>
+    <t>Player's Guide to Faerûn</t>
+  </si>
+  <si>
+    <t>フェイルーンのモンスター</t>
+  </si>
+  <si>
+    <t>Monsters of Faerûn</t>
+  </si>
+  <si>
+    <t>フェイルーンの魔法</t>
+  </si>
+  <si>
+    <t>Magic of Faerûn</t>
+  </si>
+  <si>
+    <t>エベロン・ワールドガイド</t>
+  </si>
+  <si>
+    <t>Eberron Campaign Setting</t>
+  </si>
+  <si>
+    <t>エベロン・プレイヤーズ・ガイド</t>
+  </si>
+  <si>
+    <t>Player's Guide to Eberron</t>
+  </si>
+  <si>
+    <t>ゼンドリックの秘密</t>
+  </si>
+  <si>
+    <t>Secrets of Xen'drik</t>
+  </si>
+  <si>
+    <t>五つ国：ファイヴ・ネイションズ</t>
+  </si>
+  <si>
+    <t>Five Nations</t>
+  </si>
+  <si>
+    <t>シャーン：塔の街</t>
+  </si>
+  <si>
+    <t>Sharn: City of Towers</t>
+  </si>
+  <si>
+    <t>ドラゴンマーク</t>
+  </si>
+  <si>
+    <t>Dragonmarked</t>
+  </si>
+  <si>
+    <t>翡翠の鉤爪</t>
+  </si>
+  <si>
+    <t>Grasp of the Emerald Claw</t>
+  </si>
+  <si>
+    <t>最終戦争の影</t>
+  </si>
+  <si>
+    <t>Shadows of the Last War</t>
+  </si>
+  <si>
+    <t>魔剣の囁き</t>
+  </si>
+  <si>
+    <t>Whispers of the Vampire's Blade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -895,6 +1007,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data" connectionId="1" xr16:uid="{AE2A19BC-857B-2A43-8E22-BF106B0B2A02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,17 +1309,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
@@ -2045,6 +2161,278 @@
         <v>103</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2007</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2005</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2005</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2009</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2008</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2007</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2008</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2007</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2007</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F48">
     <sortCondition ref="A2:A48"/>

--- a/dnd-3e/checklist.xlsx
+++ b/dnd-3e/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dnd-3e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC5F96-BDBE-BA49-B58F-B22AC1B9955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD162B7-607E-9341-AE2F-7D52E1E4CAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="200">
   <si>
     <t>ベーシック・セット</t>
   </si>
@@ -465,6 +465,177 @@
   </si>
   <si>
     <t>Whispers of the Vampire's Blade</t>
+  </si>
+  <si>
+    <t>suncit.jpg</t>
+  </si>
+  <si>
+    <t>forfur.jpg</t>
+  </si>
+  <si>
+    <t>spedre.jpg</t>
+  </si>
+  <si>
+    <t>heartnf.jpg</t>
+  </si>
+  <si>
+    <t>standst.jpg</t>
+  </si>
+  <si>
+    <t>deephor.jpg</t>
+  </si>
+  <si>
+    <t>basic_set.jpg</t>
+  </si>
+  <si>
+    <t>begin_set.jpg</t>
+  </si>
+  <si>
+    <t>armeq.jpg</t>
+  </si>
+  <si>
+    <t>manplane.jpg</t>
+  </si>
+  <si>
+    <t>bookvile.jpg</t>
+  </si>
+  <si>
+    <t>hbg.jpg</t>
+  </si>
+  <si>
+    <t>bookchal.jpg</t>
+  </si>
+  <si>
+    <t>retelem.jpg</t>
+  </si>
+  <si>
+    <t>ironfort.jpg</t>
+  </si>
+  <si>
+    <t>bastionbs.jpg</t>
+  </si>
+  <si>
+    <t>psion</t>
+  </si>
+  <si>
+    <t>comwar.jpg</t>
+  </si>
+  <si>
+    <t>masscr.jpg</t>
+  </si>
+  <si>
+    <t>phb2.jpg</t>
+  </si>
+  <si>
+    <t>bookexal.jpg</t>
+  </si>
+  <si>
+    <t>racestone.jpg</t>
+  </si>
+  <si>
+    <t>racewild.jpg</t>
+  </si>
+  <si>
+    <t>racedest.jpg</t>
+  </si>
+  <si>
+    <t>comarc.jpg</t>
+  </si>
+  <si>
+    <t>comadv.jpg</t>
+  </si>
+  <si>
+    <t>comdiv.jpg</t>
+  </si>
+  <si>
+    <t>draconom.jpg</t>
+  </si>
+  <si>
+    <t>spellcom.jpg</t>
+  </si>
+  <si>
+    <t>demon.jpg</t>
+  </si>
+  <si>
+    <t>devil.jpg</t>
+  </si>
+  <si>
+    <t>redhand.jpg</t>
+  </si>
+  <si>
+    <t>scourge.jpg</t>
+  </si>
+  <si>
+    <t>comscound.jpg</t>
+  </si>
+  <si>
+    <t>commage.jpg</t>
+  </si>
+  <si>
+    <t>comchamp.jpg</t>
+  </si>
+  <si>
+    <t>barrowfor.jpg</t>
+  </si>
+  <si>
+    <t>sinspi.jpg</t>
+  </si>
+  <si>
+    <t>yuanti.jpg</t>
+  </si>
+  <si>
+    <t>mm2.jpg</t>
+  </si>
+  <si>
+    <t>mm3</t>
+  </si>
+  <si>
+    <t>livgrey.jpg</t>
+  </si>
+  <si>
+    <t>frcam.jpg</t>
+  </si>
+  <si>
+    <t>waterdeep.jpg</t>
+  </si>
+  <si>
+    <t>underdark.jpg</t>
+  </si>
+  <si>
+    <t>playfr.jpg</t>
+  </si>
+  <si>
+    <t>monfr.jpg</t>
+  </si>
+  <si>
+    <t>magicfr.jpg</t>
+  </si>
+  <si>
+    <t>ebcam.jpg</t>
+  </si>
+  <si>
+    <t>ebplay.jpg</t>
+  </si>
+  <si>
+    <t>ebsec.jpg</t>
+  </si>
+  <si>
+    <t>eb5nat.jpg</t>
+  </si>
+  <si>
+    <t>ebsham.jpg</t>
+  </si>
+  <si>
+    <t>dragonmark.jpg</t>
+  </si>
+  <si>
+    <t>emclaw.jpg</t>
+  </si>
+  <si>
+    <t>shadwar.jpg</t>
+  </si>
+  <si>
+    <t>whispvamp.jpg</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:F61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,6 +1588,9 @@
       <c r="D5" t="s">
         <v>98</v>
       </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
       <c r="F5" t="s">
         <v>104</v>
       </c>
@@ -1434,6 +1608,9 @@
       <c r="D6" t="s">
         <v>98</v>
       </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
       <c r="F6" t="s">
         <v>104</v>
       </c>
@@ -1451,6 +1628,9 @@
       <c r="D7" t="s">
         <v>98</v>
       </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
       <c r="F7" t="s">
         <v>104</v>
       </c>
@@ -1468,6 +1648,9 @@
       <c r="D8" t="s">
         <v>98</v>
       </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
       <c r="F8" t="s">
         <v>104</v>
       </c>
@@ -1485,6 +1668,9 @@
       <c r="D9" t="s">
         <v>98</v>
       </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
       <c r="F9" t="s">
         <v>104</v>
       </c>
@@ -1502,6 +1688,9 @@
       <c r="D10" t="s">
         <v>98</v>
       </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
       <c r="F10" t="s">
         <v>104</v>
       </c>
@@ -1519,6 +1708,9 @@
       <c r="D11" t="s">
         <v>98</v>
       </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
       <c r="F11" t="s">
         <v>99</v>
       </c>
@@ -1536,6 +1728,9 @@
       <c r="D12" t="s">
         <v>98</v>
       </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
       <c r="F12" t="s">
         <v>103</v>
       </c>
@@ -1553,6 +1748,9 @@
       <c r="D13" t="s">
         <v>98</v>
       </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
       <c r="F13" t="s">
         <v>103</v>
       </c>
@@ -1570,6 +1768,9 @@
       <c r="D14" t="s">
         <v>98</v>
       </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
       <c r="F14" t="s">
         <v>103</v>
       </c>
@@ -1587,6 +1788,9 @@
       <c r="D15" t="s">
         <v>98</v>
       </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
       <c r="F15" t="s">
         <v>103</v>
       </c>
@@ -1604,6 +1808,9 @@
       <c r="D16" t="s">
         <v>98</v>
       </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" t="s">
         <v>103</v>
       </c>
@@ -1621,6 +1828,9 @@
       <c r="D17" t="s">
         <v>98</v>
       </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
       <c r="F17" t="s">
         <v>104</v>
       </c>
@@ -1638,6 +1848,9 @@
       <c r="D18" t="s">
         <v>98</v>
       </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
       <c r="F18" t="s">
         <v>104</v>
       </c>
@@ -1655,6 +1868,9 @@
       <c r="D19" t="s">
         <v>98</v>
       </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
       <c r="F19" t="s">
         <v>104</v>
       </c>
@@ -1732,6 +1948,9 @@
       <c r="D23" t="s">
         <v>98</v>
       </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
       <c r="F23" t="s">
         <v>103</v>
       </c>
@@ -1749,6 +1968,9 @@
       <c r="D24" t="s">
         <v>98</v>
       </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
       <c r="F24" t="s">
         <v>103</v>
       </c>
@@ -1766,6 +1988,9 @@
       <c r="D25" t="s">
         <v>98</v>
       </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
       <c r="F25" t="s">
         <v>103</v>
       </c>
@@ -1783,6 +2008,9 @@
       <c r="D26" t="s">
         <v>98</v>
       </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
       <c r="F26" t="s">
         <v>103</v>
       </c>
@@ -1800,6 +2028,9 @@
       <c r="D27" t="s">
         <v>98</v>
       </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
       <c r="F27" t="s">
         <v>103</v>
       </c>
@@ -1817,6 +2048,9 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
       <c r="F28" t="s">
         <v>103</v>
       </c>
@@ -1834,6 +2068,9 @@
       <c r="D29" t="s">
         <v>98</v>
       </c>
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
       <c r="F29" t="s">
         <v>103</v>
       </c>
@@ -1851,6 +2088,9 @@
       <c r="D30" t="s">
         <v>98</v>
       </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
       <c r="F30" t="s">
         <v>103</v>
       </c>
@@ -1868,6 +2108,9 @@
       <c r="D31" t="s">
         <v>98</v>
       </c>
+      <c r="E31" t="s">
+        <v>167</v>
+      </c>
       <c r="F31" t="s">
         <v>103</v>
       </c>
@@ -1885,6 +2128,9 @@
       <c r="D32" t="s">
         <v>98</v>
       </c>
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
       <c r="F32" t="s">
         <v>103</v>
       </c>
@@ -1902,6 +2148,9 @@
       <c r="D33" t="s">
         <v>98</v>
       </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
       <c r="F33" t="s">
         <v>103</v>
       </c>
@@ -1919,6 +2168,9 @@
       <c r="D34" t="s">
         <v>98</v>
       </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
       <c r="F34" t="s">
         <v>99</v>
       </c>
@@ -1936,6 +2188,9 @@
       <c r="D35" t="s">
         <v>98</v>
       </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
       <c r="F35" t="s">
         <v>103</v>
       </c>
@@ -1953,6 +2208,9 @@
       <c r="D36" t="s">
         <v>98</v>
       </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
       <c r="F36" t="s">
         <v>103</v>
       </c>
@@ -1970,6 +2228,9 @@
       <c r="D37" t="s">
         <v>98</v>
       </c>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
       <c r="F37" t="s">
         <v>103</v>
       </c>
@@ -1987,6 +2248,9 @@
       <c r="D38" t="s">
         <v>98</v>
       </c>
+      <c r="E38" t="s">
+        <v>173</v>
+      </c>
       <c r="F38" t="s">
         <v>103</v>
       </c>
@@ -2004,6 +2268,9 @@
       <c r="D39" t="s">
         <v>98</v>
       </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
       <c r="F39" t="s">
         <v>104</v>
       </c>
@@ -2021,6 +2288,9 @@
       <c r="D40" t="s">
         <v>98</v>
       </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
       <c r="F40" t="s">
         <v>104</v>
       </c>
@@ -2038,6 +2308,9 @@
       <c r="D41" t="s">
         <v>98</v>
       </c>
+      <c r="E41" t="s">
+        <v>176</v>
+      </c>
       <c r="F41" t="s">
         <v>103</v>
       </c>
@@ -2055,6 +2328,9 @@
       <c r="D42" t="s">
         <v>98</v>
       </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
       <c r="F42" t="s">
         <v>103</v>
       </c>
@@ -2072,6 +2348,9 @@
       <c r="D43" t="s">
         <v>98</v>
       </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
       <c r="F43" t="s">
         <v>103</v>
       </c>
@@ -2089,6 +2368,9 @@
       <c r="D44" t="s">
         <v>98</v>
       </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
       <c r="F44" t="s">
         <v>104</v>
       </c>
@@ -2106,6 +2388,9 @@
       <c r="D45" t="s">
         <v>98</v>
       </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
       <c r="F45" t="s">
         <v>104</v>
       </c>
@@ -2123,13 +2408,16 @@
       <c r="D46" t="s">
         <v>98</v>
       </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
       <c r="F46" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -2140,13 +2428,16 @@
       <c r="D47" t="s">
         <v>98</v>
       </c>
+      <c r="E47" t="s">
+        <v>182</v>
+      </c>
       <c r="F47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -2156,6 +2447,9 @@
       </c>
       <c r="D48" t="s">
         <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>183</v>
       </c>
       <c r="F48" t="s">
         <v>103</v>
@@ -2174,6 +2468,9 @@
       <c r="D49" t="s">
         <v>98</v>
       </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
       <c r="F49" t="s">
         <v>103</v>
       </c>
@@ -2191,6 +2488,9 @@
       <c r="D50" t="s">
         <v>98</v>
       </c>
+      <c r="E50" t="s">
+        <v>185</v>
+      </c>
       <c r="F50" t="s">
         <v>103</v>
       </c>
@@ -2208,6 +2508,9 @@
       <c r="D51" t="s">
         <v>98</v>
       </c>
+      <c r="E51" t="s">
+        <v>186</v>
+      </c>
       <c r="F51" t="s">
         <v>103</v>
       </c>
@@ -2225,6 +2528,9 @@
       <c r="D52" t="s">
         <v>98</v>
       </c>
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
       <c r="F52" t="s">
         <v>103</v>
       </c>
@@ -2242,6 +2548,9 @@
       <c r="D53" t="s">
         <v>98</v>
       </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
       <c r="F53" t="s">
         <v>103</v>
       </c>
@@ -2259,6 +2568,9 @@
       <c r="D54" t="s">
         <v>98</v>
       </c>
+      <c r="E54" t="s">
+        <v>189</v>
+      </c>
       <c r="F54" t="s">
         <v>103</v>
       </c>
@@ -2276,6 +2588,9 @@
       <c r="D55" t="s">
         <v>98</v>
       </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
       <c r="F55" t="s">
         <v>103</v>
       </c>
@@ -2293,6 +2608,9 @@
       <c r="D56" t="s">
         <v>98</v>
       </c>
+      <c r="E56" t="s">
+        <v>191</v>
+      </c>
       <c r="F56" t="s">
         <v>103</v>
       </c>
@@ -2310,6 +2628,9 @@
       <c r="D57" t="s">
         <v>98</v>
       </c>
+      <c r="E57" t="s">
+        <v>192</v>
+      </c>
       <c r="F57" t="s">
         <v>103</v>
       </c>
@@ -2327,6 +2648,9 @@
       <c r="D58" t="s">
         <v>98</v>
       </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
       <c r="F58" t="s">
         <v>103</v>
       </c>
@@ -2344,6 +2668,9 @@
       <c r="D59" t="s">
         <v>98</v>
       </c>
+      <c r="E59" t="s">
+        <v>194</v>
+      </c>
       <c r="F59" t="s">
         <v>103</v>
       </c>
@@ -2361,6 +2688,9 @@
       <c r="D60" t="s">
         <v>98</v>
       </c>
+      <c r="E60" t="s">
+        <v>195</v>
+      </c>
       <c r="F60" t="s">
         <v>103</v>
       </c>
@@ -2378,6 +2708,9 @@
       <c r="D61" t="s">
         <v>98</v>
       </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
       <c r="F61" t="s">
         <v>103</v>
       </c>
@@ -2395,6 +2728,9 @@
       <c r="D62" t="s">
         <v>98</v>
       </c>
+      <c r="E62" t="s">
+        <v>197</v>
+      </c>
       <c r="F62" t="s">
         <v>104</v>
       </c>
@@ -2412,6 +2748,9 @@
       <c r="D63" t="s">
         <v>98</v>
       </c>
+      <c r="E63" t="s">
+        <v>198</v>
+      </c>
       <c r="F63" t="s">
         <v>104</v>
       </c>
@@ -2428,6 +2767,9 @@
       </c>
       <c r="D64" t="s">
         <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>199</v>
       </c>
       <c r="F64" t="s">
         <v>104</v>

--- a/dnd-3e/checklist.xlsx
+++ b/dnd-3e/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dnd-3e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD162B7-607E-9341-AE2F-7D52E1E4CAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0EFB880-4C5F-3245-A788-AEB98847D408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,9 +515,6 @@
     <t>bastionbs.jpg</t>
   </si>
   <si>
-    <t>psion</t>
-  </si>
-  <si>
     <t>comwar.jpg</t>
   </si>
   <si>
@@ -587,9 +584,6 @@
     <t>mm2.jpg</t>
   </si>
   <si>
-    <t>mm3</t>
-  </si>
-  <si>
     <t>livgrey.jpg</t>
   </si>
   <si>
@@ -636,6 +630,12 @@
   </si>
   <si>
     <t>whispvamp.jpg</t>
+  </si>
+  <si>
+    <t>psion.jpg</t>
+  </si>
+  <si>
+    <t>mm3.jpg</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1949,7 +1949,7 @@
         <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F23" t="s">
         <v>103</v>
@@ -1969,7 +1969,7 @@
         <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
         <v>103</v>
@@ -1989,7 +1989,7 @@
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
         <v>103</v>
@@ -2009,7 +2009,7 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
         <v>103</v>
@@ -2029,7 +2029,7 @@
         <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" t="s">
         <v>103</v>
@@ -2049,7 +2049,7 @@
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
         <v>103</v>
@@ -2069,7 +2069,7 @@
         <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
         <v>103</v>
@@ -2089,7 +2089,7 @@
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" t="s">
         <v>103</v>
@@ -2109,7 +2109,7 @@
         <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
         <v>103</v>
@@ -2129,7 +2129,7 @@
         <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
         <v>103</v>
@@ -2149,7 +2149,7 @@
         <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
         <v>103</v>
@@ -2189,7 +2189,7 @@
         <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
         <v>103</v>
@@ -2209,7 +2209,7 @@
         <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
         <v>103</v>
@@ -2229,7 +2229,7 @@
         <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F37" t="s">
         <v>103</v>
@@ -2249,7 +2249,7 @@
         <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
         <v>103</v>
@@ -2269,7 +2269,7 @@
         <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
         <v>104</v>
@@ -2289,7 +2289,7 @@
         <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
         <v>104</v>
@@ -2309,7 +2309,7 @@
         <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
         <v>103</v>
@@ -2329,7 +2329,7 @@
         <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
         <v>103</v>
@@ -2349,7 +2349,7 @@
         <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
         <v>103</v>
@@ -2369,7 +2369,7 @@
         <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
         <v>104</v>
@@ -2389,7 +2389,7 @@
         <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
         <v>104</v>
@@ -2409,7 +2409,7 @@
         <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
         <v>104</v>
@@ -2429,7 +2429,7 @@
         <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
         <v>103</v>
@@ -2449,7 +2449,7 @@
         <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F48" t="s">
         <v>103</v>
@@ -2469,7 +2469,7 @@
         <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
         <v>103</v>
@@ -2489,7 +2489,7 @@
         <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F50" t="s">
         <v>103</v>
@@ -2509,7 +2509,7 @@
         <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F51" t="s">
         <v>103</v>
@@ -2529,7 +2529,7 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F52" t="s">
         <v>103</v>
@@ -2549,7 +2549,7 @@
         <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F53" t="s">
         <v>103</v>
@@ -2569,7 +2569,7 @@
         <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F54" t="s">
         <v>103</v>
@@ -2589,7 +2589,7 @@
         <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F55" t="s">
         <v>103</v>
@@ -2609,7 +2609,7 @@
         <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F56" t="s">
         <v>103</v>
@@ -2629,7 +2629,7 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F57" t="s">
         <v>103</v>
@@ -2649,7 +2649,7 @@
         <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
         <v>103</v>
@@ -2669,7 +2669,7 @@
         <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F59" t="s">
         <v>103</v>
@@ -2689,7 +2689,7 @@
         <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F60" t="s">
         <v>103</v>
@@ -2709,7 +2709,7 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s">
         <v>103</v>
@@ -2729,7 +2729,7 @@
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F62" t="s">
         <v>104</v>
@@ -2749,7 +2749,7 @@
         <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F63" t="s">
         <v>104</v>
@@ -2769,7 +2769,7 @@
         <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F64" t="s">
         <v>104</v>
